--- a/Features backlog.xlsx
+++ b/Features backlog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SalehRam\Desktop\Projects\Python\astroplanner\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1909917D-527A-4ADD-A1CD-EE944748BAEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05D83E92-5BD8-4FE3-BED7-F45E67395DC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="34620" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>🚀 Mini progress bars per channel,</t>
   </si>
@@ -40,14 +40,37 @@
   </si>
   <si>
     <t>🧪 Or a Session Recommendation engine with AI-driven logic…</t>
+  </si>
+  <si>
+    <t>Tonight's window card</t>
+  </si>
+  <si>
+    <t>Shade the part of the curve that lies inside your actual window.</t>
+  </si>
+  <si>
+    <t>Or add a tiny “best time to shoot” marker at the highest altitude point.</t>
+  </si>
+  <si>
+    <t>Draw a horizontal line at your altitude threshold (30°) in the chart.</t>
+  </si>
+  <si>
+    <t>Integration with NINA sequencer (build a sequence for tonight's pick/target/priority) and inject it in PixInsight if doable</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -75,8 +98,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -357,10 +381,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:B6"/>
+  <dimension ref="B2:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G12:G13"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -393,6 +417,31 @@
         <v>4</v>
       </c>
     </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B8" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Features backlog.xlsx
+++ b/Features backlog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SalehRam\Desktop\Projects\Python\astroplanner\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05D83E92-5BD8-4FE3-BED7-F45E67395DC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6F29F27-7F22-4932-AD4F-B9CFFC7136F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="34620" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -78,12 +78,30 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -98,9 +116,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -384,7 +405,7 @@
   <dimension ref="B2:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -413,7 +434,7 @@
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B6" t="s">
+      <c r="B6" s="4" t="s">
         <v>4</v>
       </c>
     </row>
@@ -423,12 +444,12 @@
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B9" t="s">
+      <c r="B9" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B10" t="s">
+      <c r="B10" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -438,7 +459,7 @@
       </c>
     </row>
     <row r="14" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B14" t="s">
+      <c r="B14" s="3" t="s">
         <v>9</v>
       </c>
     </row>
